--- a/91-OntologyGovernance/Configuration_Management_Matrix.xlsx
+++ b/91-OntologyGovernance/Configuration_Management_Matrix.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <r>
       <t xml:space="preserve">Legend: </t>
@@ -262,12 +262,16 @@
 1. section about the eMandate Request
 2. section about SP-IR</t>
   </si>
+  <si>
+    <t>CREATE AN ISSUE WITH THIS SUBJECT AND COMMENT: SUBJEC-&gt; Need for OA Friendly Name. COMMENT: AT's Request has this Information Requirement in the eMandate Request: "This is an optional element and defines the name of the application that will be displayed to the representative when selecting the power." (transalated from German with GoogleTranslator, please help with this, AT).
+Is this a general need for all MS or just for AT? We need to identify what is common and what is not, and try and find a way of "extending" the "core" common model for particular purposes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +352,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,8 +537,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +825,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -951,8 +963,8 @@
       <c r="G7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
+      <c r="H7" s="49" t="s">
+        <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>16</v>
@@ -984,7 +996,7 @@
       <c r="R7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="48" t="s">
         <v>35</v>
       </c>
       <c r="T7" s="22" t="s">
@@ -3151,15 +3163,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6C5B8CC32BC1140B6F0C5F77127AF3D" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ccdced788aa6097cdc2094b7780d7d34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12d6af70-178b-4e5d-9119-f14160711e65" xmlns:ns3="d384abb4-6cb5-4f67-8867-449f3dc2801e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76320ff5a0f511864f8e78ce856f248c" ns2:_="" ns3:_="">
     <xsd:import namespace="12d6af70-178b-4e5d-9119-f14160711e65"/>
@@ -3338,6 +3341,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE42AAC-CB24-4256-BB6B-FAAC1625EB49}">
   <ds:schemaRefs>
@@ -3356,14 +3368,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3875011-8F36-4E05-8251-FC48BAA28C8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15705703-49A5-4F6F-9017-D3B77FD4B4F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3380,4 +3384,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3875011-8F36-4E05-8251-FC48BAA28C8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>